--- a/tabular/eve/epv-proto-side-data.xlsx
+++ b/tabular/eve/epv-proto-side-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55832AE8-D962-914B-B1D9-6B3228CF3C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546FA5F-20B2-9F42-97CD-F68C79B5DF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="2220" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="2840" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main set" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="332">
   <si>
     <t>virus_genus</t>
   </si>
@@ -997,6 +997,30 @@
   </si>
   <si>
     <t>Reptiles</t>
+  </si>
+  <si>
+    <t>locus_numeric_id</t>
+  </si>
+  <si>
+    <t>locus_name</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>proto.1-rattus</t>
+  </si>
+  <si>
+    <t>proto.2-apodemus</t>
+  </si>
+  <si>
+    <t>proto.3-mus_spretus</t>
+  </si>
+  <si>
+    <t>proto.4-mus_spicilegus</t>
+  </si>
+  <si>
+    <t>proto.102-tamandua</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1071,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,6 +1105,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1201,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1177,6 +1213,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1584,3748 +1628,4110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="27.1640625" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="27.1640625" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>128335</v>
-      </c>
-      <c r="B2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>67069</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2">
-        <v>1415</v>
-      </c>
-      <c r="N2">
-        <v>2827</v>
-      </c>
-      <c r="O2">
-        <v>1413</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="I2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="10">
+        <v>68317394</v>
+      </c>
+      <c r="P2" s="10">
+        <v>68319566</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>2173</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="10">
+        <v>575</v>
+      </c>
+      <c r="V2" s="10">
+        <v>65.682000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>127524</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="10">
+        <v>36780</v>
+      </c>
+      <c r="P3" s="10">
+        <v>40287</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>3508</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="10">
+        <v>810</v>
+      </c>
+      <c r="V3" s="10">
+        <v>72.676000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>127356</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="10">
+        <v>92706775</v>
+      </c>
+      <c r="P4" s="10">
+        <v>92709724</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>2950</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="10">
+        <v>857</v>
+      </c>
+      <c r="V4" s="10">
+        <v>76.224000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>127498</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="10">
+        <v>393893</v>
+      </c>
+      <c r="P5" s="10">
+        <v>397325</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>3433</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="10">
+        <v>819</v>
+      </c>
+      <c r="V5" s="10">
+        <v>65.498000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>127824</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="9">
+        <v>102</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="10">
+        <v>5551</v>
+      </c>
+      <c r="P6" s="10">
+        <v>9363</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>3813</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S2">
-        <v>317</v>
-      </c>
-      <c r="T2">
-        <v>35.941000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>69167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3">
-        <v>8162107</v>
-      </c>
-      <c r="N3">
-        <v>8163053</v>
-      </c>
-      <c r="O3">
-        <v>947</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>191</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>97.1</v>
-      </c>
-      <c r="T3">
-        <v>36.058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>66379</v>
-      </c>
-      <c r="B4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4">
-        <v>3785034</v>
-      </c>
-      <c r="N4">
-        <v>3786548</v>
-      </c>
-      <c r="O4">
-        <v>1515</v>
-      </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>191</v>
-      </c>
-      <c r="R4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4">
-        <v>319</v>
-      </c>
-      <c r="T4">
-        <v>35.514000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>578</v>
-      </c>
-      <c r="B5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K5" t="s">
-        <v>204</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>3921196</v>
-      </c>
-      <c r="N5">
-        <v>3921567</v>
-      </c>
-      <c r="O5">
-        <v>372</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>191</v>
-      </c>
-      <c r="R5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>121</v>
-      </c>
-      <c r="T5">
-        <v>44.715000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>546</v>
-      </c>
-      <c r="B6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K6" t="s">
-        <v>206</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
-        <v>39131</v>
-      </c>
-      <c r="N6">
-        <v>39517</v>
-      </c>
-      <c r="O6">
-        <v>387</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>191</v>
-      </c>
-      <c r="R6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6">
-        <v>110</v>
-      </c>
-      <c r="T6">
-        <v>40.768999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="10">
+        <v>498</v>
+      </c>
+      <c r="V6" s="10">
+        <v>51.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>128335</v>
       </c>
       <c r="B7" t="s">
         <v>269</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>110</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>130</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>131</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>199</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>200</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1415</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>2827</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1413</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>192</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>8</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>317</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>35.941000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
+        <v>69167</v>
+      </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>201</v>
+      </c>
+      <c r="M8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>8162107</v>
+      </c>
+      <c r="P8">
+        <v>8163053</v>
+      </c>
+      <c r="Q8">
+        <v>947</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" t="s">
+        <v>191</v>
+      </c>
+      <c r="T8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>97.1</v>
+      </c>
+      <c r="V8">
+        <v>36.058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>66379</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1002</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>201</v>
+      </c>
+      <c r="M9" t="s">
+        <v>202</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9">
+        <v>3785034</v>
+      </c>
+      <c r="P9">
+        <v>3786548</v>
+      </c>
+      <c r="Q9">
+        <v>1515</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" t="s">
+        <v>191</v>
+      </c>
+      <c r="T9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>319</v>
+      </c>
+      <c r="V9">
+        <v>35.514000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>578</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>3921196</v>
+      </c>
+      <c r="P10">
+        <v>3921567</v>
+      </c>
+      <c r="Q10">
+        <v>372</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>121</v>
+      </c>
+      <c r="V10">
+        <v>44.715000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>546</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>273</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1004</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F11" t="s">
         <v>110</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G11" t="s">
         <v>104</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H11" t="s">
         <v>132</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I11" t="s">
         <v>133</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J11" t="s">
         <v>134</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K11" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L11" t="s">
         <v>205</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M11" t="s">
         <v>206</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N11" t="s">
         <v>19</v>
       </c>
-      <c r="M8">
+      <c r="O11">
         <v>39131</v>
       </c>
-      <c r="N8">
+      <c r="P11">
         <v>39517</v>
       </c>
-      <c r="O8">
+      <c r="Q11">
         <v>387</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R11" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S11" t="s">
         <v>191</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T11" t="s">
         <v>10</v>
       </c>
-      <c r="S8">
+      <c r="U11">
         <v>110</v>
       </c>
-      <c r="T8">
+      <c r="V11">
         <v>40.768999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>128335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1005</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" t="s">
+        <v>200</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12">
+        <v>1415</v>
+      </c>
+      <c r="P12">
+        <v>2827</v>
+      </c>
+      <c r="Q12">
+        <v>1413</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" t="s">
+        <v>192</v>
+      </c>
+      <c r="T12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12">
+        <v>317</v>
+      </c>
+      <c r="V12">
+        <v>35.941000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>546</v>
+      </c>
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1006</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>39131</v>
+      </c>
+      <c r="P13">
+        <v>39517</v>
+      </c>
+      <c r="Q13">
+        <v>387</v>
+      </c>
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" t="s">
+        <v>191</v>
+      </c>
+      <c r="T13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>110</v>
+      </c>
+      <c r="V13">
+        <v>40.768999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>69167</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>270</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1007</v>
+      </c>
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G14" t="s">
         <v>104</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H14" t="s">
         <v>132</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I14" t="s">
         <v>135</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J14" t="s">
         <v>136</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K14" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L14" t="s">
         <v>201</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M14" t="s">
         <v>202</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N14" t="s">
         <v>21</v>
       </c>
-      <c r="M9">
+      <c r="O14">
         <v>8162107</v>
       </c>
-      <c r="N9">
+      <c r="P14">
         <v>8163053</v>
       </c>
-      <c r="O9">
+      <c r="Q14">
         <v>947</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R14" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S14" t="s">
         <v>191</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T14" t="s">
         <v>10</v>
       </c>
-      <c r="S9">
+      <c r="U14">
         <v>97.1</v>
       </c>
-      <c r="T9">
+      <c r="V14">
         <v>36.058</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>66379</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>271</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1008</v>
+      </c>
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F15" t="s">
         <v>110</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G15" t="s">
         <v>104</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H15" t="s">
         <v>132</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I15" t="s">
         <v>135</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J15" t="s">
         <v>136</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K15" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L15" t="s">
         <v>201</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M15" t="s">
         <v>202</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N15" t="s">
         <v>22</v>
       </c>
-      <c r="M10">
+      <c r="O15">
         <v>3785034</v>
       </c>
-      <c r="N10">
+      <c r="P15">
         <v>3786548</v>
       </c>
-      <c r="O10">
+      <c r="Q15">
         <v>1515</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R15" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S15" t="s">
         <v>191</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T15" t="s">
         <v>8</v>
       </c>
-      <c r="S10">
+      <c r="U15">
         <v>319</v>
       </c>
-      <c r="T10">
+      <c r="V15">
         <v>35.514000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>578</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>272</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1009</v>
+      </c>
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F16" t="s">
         <v>110</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G16" t="s">
         <v>113</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H16" t="s">
         <v>137</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I16" t="s">
         <v>138</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J16" t="s">
         <v>139</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K16" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L16" t="s">
         <v>203</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M16" t="s">
         <v>204</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N16" t="s">
         <v>24</v>
       </c>
-      <c r="M11">
+      <c r="O16">
         <v>3921196</v>
       </c>
-      <c r="N11">
+      <c r="P16">
         <v>3921567</v>
       </c>
-      <c r="O11">
+      <c r="Q16">
         <v>372</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R16" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S16" t="s">
         <v>191</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T16" t="s">
         <v>10</v>
       </c>
-      <c r="S11">
+      <c r="U16">
         <v>121</v>
       </c>
-      <c r="T11">
+      <c r="V16">
         <v>44.715000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>127373</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>292</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1010</v>
+      </c>
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F17" t="s">
         <v>126</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G17" t="s">
         <v>104</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H17" t="s">
         <v>127</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I17" t="s">
         <v>128</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J17" t="s">
         <v>129</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K17" t="s">
         <v>44</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L17" t="s">
         <v>197</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M17" t="s">
         <v>198</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N17" t="s">
         <v>101</v>
       </c>
-      <c r="M12">
+      <c r="O17">
         <v>278</v>
       </c>
-      <c r="N12">
+      <c r="P17">
         <v>2135</v>
       </c>
-      <c r="O12">
+      <c r="Q17">
         <v>1858</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R17" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S17" t="s">
         <v>191</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T17" t="s">
         <v>8</v>
       </c>
-      <c r="S12">
+      <c r="U17">
         <v>115</v>
       </c>
-      <c r="T12">
+      <c r="V17">
         <v>32.11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>69206</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>298</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1011</v>
+      </c>
+      <c r="E18" t="s">
         <v>95</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F18" t="s">
         <v>126</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G18" t="s">
         <v>104</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H18" t="s">
         <v>127</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I18" t="s">
         <v>128</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J18" t="s">
         <v>129</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K18" t="s">
         <v>44</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L18" t="s">
         <v>243</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M18" t="s">
         <v>244</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N18" t="s">
         <v>98</v>
       </c>
-      <c r="M13">
+      <c r="O18">
         <v>15726</v>
       </c>
-      <c r="N13">
+      <c r="P18">
         <v>16812</v>
       </c>
-      <c r="O13">
+      <c r="Q18">
         <v>1087</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R18" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S18" t="s">
         <v>191</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T18" t="s">
         <v>10</v>
       </c>
-      <c r="S13">
+      <c r="U18">
         <v>119</v>
       </c>
-      <c r="T13">
+      <c r="V18">
         <v>31.602</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>696</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>308</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1012</v>
+      </c>
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F19" t="s">
         <v>126</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G19" t="s">
         <v>104</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H19" t="s">
         <v>127</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I19" t="s">
         <v>128</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J19" t="s">
         <v>129</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K19" t="s">
         <v>44</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L19" t="s">
         <v>197</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M19" t="s">
         <v>198</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N19" t="s">
         <v>100</v>
       </c>
-      <c r="M14">
+      <c r="O19">
         <v>4894</v>
       </c>
-      <c r="N14">
+      <c r="P19">
         <v>5268</v>
       </c>
-      <c r="O14">
+      <c r="Q19">
         <v>369</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R19" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S19" t="s">
         <v>191</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T19" t="s">
         <v>10</v>
       </c>
-      <c r="S14">
+      <c r="U19">
         <v>67.8</v>
       </c>
-      <c r="T14">
+      <c r="V19">
         <v>33.064999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>1666</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>314</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1013</v>
+      </c>
+      <c r="E20" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F20" t="s">
         <v>126</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G20" t="s">
         <v>104</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H20" t="s">
         <v>127</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I20" t="s">
         <v>128</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J20" t="s">
         <v>129</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L20" t="s">
         <v>243</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M20" t="s">
         <v>244</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N20" t="s">
         <v>97</v>
       </c>
-      <c r="M15">
+      <c r="O20">
         <v>64936</v>
       </c>
-      <c r="N15">
+      <c r="P20">
         <v>65115</v>
       </c>
-      <c r="O15">
+      <c r="Q20">
         <v>180</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R20" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S20" t="s">
         <v>192</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T20" t="s">
         <v>10</v>
       </c>
-      <c r="S15">
+      <c r="U20">
         <v>62.8</v>
       </c>
-      <c r="T15">
+      <c r="V20">
         <v>41.667000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>1665</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>315</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1014</v>
+      </c>
+      <c r="E21" t="s">
         <v>95</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F21" t="s">
         <v>126</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G21" t="s">
         <v>104</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H21" t="s">
         <v>127</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I21" t="s">
         <v>128</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J21" t="s">
         <v>129</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K21" t="s">
         <v>44</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L21" t="s">
         <v>243</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M21" t="s">
         <v>244</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N21" t="s">
         <v>96</v>
       </c>
-      <c r="M16">
+      <c r="O21">
         <v>275</v>
       </c>
-      <c r="N16">
+      <c r="P21">
         <v>454</v>
       </c>
-      <c r="O16">
+      <c r="Q21">
         <v>180</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R21" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S21" t="s">
         <v>192</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T21" t="s">
         <v>8</v>
       </c>
-      <c r="S16">
+      <c r="U21">
         <v>62.8</v>
       </c>
-      <c r="T16">
+      <c r="V21">
         <v>41.667000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>835</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>316</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1015</v>
+      </c>
+      <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G22" t="s">
         <v>104</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H22" t="s">
         <v>127</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I22" t="s">
         <v>128</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J22" t="s">
         <v>129</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K22" t="s">
         <v>44</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L22" t="s">
         <v>197</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M22" t="s">
         <v>198</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N22" t="s">
         <v>100</v>
       </c>
-      <c r="M17">
+      <c r="O22">
         <v>6741</v>
       </c>
-      <c r="N17">
+      <c r="P22">
         <v>6920</v>
       </c>
-      <c r="O17">
+      <c r="Q22">
         <v>180</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R22" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S22" t="s">
         <v>192</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T22" t="s">
         <v>10</v>
       </c>
-      <c r="S17">
+      <c r="U22">
         <v>62.8</v>
       </c>
-      <c r="T17">
+      <c r="V22">
         <v>41.667000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>834</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>317</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1016</v>
+      </c>
+      <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F23" t="s">
         <v>126</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G23" t="s">
         <v>104</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H23" t="s">
         <v>127</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I23" t="s">
         <v>128</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J23" t="s">
         <v>129</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L23" t="s">
         <v>197</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M23" t="s">
         <v>198</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N23" t="s">
         <v>99</v>
       </c>
-      <c r="M18">
+      <c r="O23">
         <v>3097</v>
       </c>
-      <c r="N18">
+      <c r="P23">
         <v>3276</v>
       </c>
-      <c r="O18">
+      <c r="Q23">
         <v>180</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R23" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S23" t="s">
         <v>192</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T23" t="s">
         <v>10</v>
       </c>
-      <c r="S18">
+      <c r="U23">
         <v>62.8</v>
       </c>
-      <c r="T18">
+      <c r="V23">
         <v>41.667000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>210985</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>274</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1017</v>
+      </c>
+      <c r="E24" t="s">
         <v>207</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F24" t="s">
         <v>110</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G24" t="s">
         <v>123</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H24" t="s">
         <v>124</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I24" t="s">
         <v>163</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J24" t="s">
         <v>164</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K24" t="s">
         <v>44</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L24" t="s">
         <v>208</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M24" t="s">
         <v>209</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N24" t="s">
         <v>210</v>
       </c>
-      <c r="M19">
+      <c r="O24">
         <v>81076</v>
       </c>
-      <c r="N19">
+      <c r="P24">
         <v>81573</v>
       </c>
-      <c r="O19">
+      <c r="Q24">
         <v>498</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R24" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S24" t="s">
         <v>192</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T24" t="s">
         <v>8</v>
       </c>
-      <c r="S19">
+      <c r="U24">
         <v>93.6</v>
       </c>
-      <c r="T19">
+      <c r="V24">
         <v>31.547999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>169456</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>275</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1018</v>
+      </c>
+      <c r="E25" t="s">
         <v>84</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F25" t="s">
         <v>110</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G25" t="s">
         <v>123</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H25" t="s">
         <v>104</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I25" t="s">
         <v>145</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J25" t="s">
         <v>181</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K25" t="s">
         <v>44</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L25" t="s">
         <v>211</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M25" t="s">
         <v>212</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N25" t="s">
         <v>86</v>
       </c>
-      <c r="M20">
+      <c r="O25">
         <v>78240</v>
       </c>
-      <c r="N20">
+      <c r="P25">
         <v>78677</v>
       </c>
-      <c r="O20">
+      <c r="Q25">
         <v>438</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R25" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S25" t="s">
         <v>192</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T25" t="s">
         <v>8</v>
       </c>
-      <c r="S20">
+      <c r="U25">
         <v>95.9</v>
       </c>
-      <c r="T20">
+      <c r="V25">
         <v>35.332999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>128338</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>276</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1019</v>
+      </c>
+      <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F26" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G26" t="s">
         <v>123</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H26" t="s">
         <v>104</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I26" t="s">
         <v>145</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J26" t="s">
         <v>181</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K26" t="s">
         <v>44</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L26" t="s">
         <v>213</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M26" t="s">
         <v>214</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N26" t="s">
         <v>85</v>
       </c>
-      <c r="M21">
+      <c r="O26">
         <v>78240</v>
       </c>
-      <c r="N21">
+      <c r="P26">
         <v>78677</v>
       </c>
-      <c r="O21">
+      <c r="Q26">
         <v>438</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R26" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S26" t="s">
         <v>192</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T26" t="s">
         <v>8</v>
       </c>
-      <c r="S21">
+      <c r="U26">
         <v>95.9</v>
       </c>
-      <c r="T21">
+      <c r="V26">
         <v>35.332999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>128324</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>277</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1020</v>
+      </c>
+      <c r="E27" t="s">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F27" t="s">
         <v>110</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G27" t="s">
         <v>123</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H27" t="s">
         <v>124</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I27" t="s">
         <v>158</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J27" t="s">
         <v>178</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L27" t="s">
         <v>215</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M27" t="s">
         <v>216</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N27" t="s">
         <v>64</v>
       </c>
-      <c r="M22">
+      <c r="O27">
         <v>241222</v>
       </c>
-      <c r="N22">
+      <c r="P27">
         <v>241632</v>
       </c>
-      <c r="O22">
+      <c r="Q27">
         <v>411</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R27" t="s">
         <v>49</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S27" t="s">
         <v>192</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T27" t="s">
         <v>10</v>
       </c>
-      <c r="S22">
+      <c r="U27">
         <v>108</v>
       </c>
-      <c r="T22">
+      <c r="V27">
         <v>38.686</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>128322</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>278</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1021</v>
+      </c>
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F28" t="s">
         <v>110</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G28" t="s">
         <v>123</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H28" t="s">
         <v>153</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I28" t="s">
         <v>154</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J28" t="s">
         <v>156</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L28" t="s">
         <v>217</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M28" t="s">
         <v>218</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N28" t="s">
         <v>59</v>
       </c>
-      <c r="M23">
+      <c r="O28">
         <v>50561</v>
       </c>
-      <c r="N23">
+      <c r="P28">
         <v>50890</v>
       </c>
-      <c r="O23">
+      <c r="Q28">
         <v>330</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R28" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S28" t="s">
         <v>192</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T28" t="s">
         <v>10</v>
       </c>
-      <c r="S23">
+      <c r="U28">
         <v>67.8</v>
       </c>
-      <c r="T23">
+      <c r="V28">
         <v>35.576999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>128321</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>279</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1022</v>
+      </c>
+      <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F29" t="s">
         <v>110</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G29" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H29" t="s">
         <v>153</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I29" t="s">
         <v>154</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J29" t="s">
         <v>155</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K29" t="s">
         <v>44</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L29" t="s">
         <v>219</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M29" t="s">
         <v>220</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N29" t="s">
         <v>54</v>
       </c>
-      <c r="M24">
+      <c r="O29">
         <v>16046</v>
       </c>
-      <c r="N24">
+      <c r="P29">
         <v>16375</v>
       </c>
-      <c r="O24">
+      <c r="Q29">
         <v>330</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R29" t="s">
         <v>55</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S29" t="s">
         <v>192</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T29" t="s">
         <v>10</v>
       </c>
-      <c r="S24">
+      <c r="U29">
         <v>64.7</v>
       </c>
-      <c r="T24">
+      <c r="V29">
         <v>34.615000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>128190</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>280</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1023</v>
+      </c>
+      <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F30" t="s">
         <v>110</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G30" t="s">
         <v>111</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H30" t="s">
         <v>112</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I30" t="s">
         <v>130</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J30" t="s">
         <v>131</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K30" t="s">
         <v>44</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L30" t="s">
         <v>199</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M30" t="s">
         <v>200</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N30" t="s">
         <v>73</v>
       </c>
-      <c r="M25">
+      <c r="O30">
         <v>77</v>
       </c>
-      <c r="N25">
+      <c r="P30">
         <v>337</v>
       </c>
-      <c r="O25">
+      <c r="Q30">
         <v>261</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R30" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S30" t="s">
         <v>192</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T30" t="s">
         <v>10</v>
       </c>
-      <c r="S25">
+      <c r="U30">
         <v>134</v>
       </c>
-      <c r="T25">
+      <c r="V30">
         <v>64.367999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>127828</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>281</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1024</v>
+      </c>
+      <c r="E31" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F31" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G31" t="s">
         <v>123</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H31" t="s">
         <v>140</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I31" t="s">
         <v>141</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J31" t="s">
         <v>142</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K31" t="s">
         <v>44</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L31" t="s">
         <v>221</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M31" t="s">
         <v>222</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N31" t="s">
         <v>69</v>
       </c>
-      <c r="M26">
+      <c r="O31">
         <v>79</v>
       </c>
-      <c r="N26">
+      <c r="P31">
         <v>384</v>
       </c>
-      <c r="O26">
+      <c r="Q31">
         <v>306</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R31" t="s">
         <v>49</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S31" t="s">
         <v>191</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T31" t="s">
         <v>10</v>
       </c>
-      <c r="S26">
+      <c r="U31">
         <v>111</v>
       </c>
-      <c r="T26">
+      <c r="V31">
         <v>50.494999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>127834</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>282</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1025</v>
+      </c>
+      <c r="E32" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F32" t="s">
         <v>110</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G32" t="s">
         <v>123</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H32" t="s">
         <v>140</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J32" t="s">
         <v>142</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K32" t="s">
         <v>44</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L32" t="s">
         <v>221</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M32" t="s">
         <v>222</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N32" t="s">
         <v>70</v>
       </c>
-      <c r="M27">
+      <c r="O32">
         <v>6</v>
       </c>
-      <c r="N27">
+      <c r="P32">
         <v>209</v>
       </c>
-      <c r="O27">
+      <c r="Q32">
         <v>204</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R32" t="s">
         <v>49</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S32" t="s">
         <v>191</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T32" t="s">
         <v>10</v>
       </c>
-      <c r="S27">
+      <c r="U32">
         <v>81.3</v>
       </c>
-      <c r="T27">
+      <c r="V32">
         <v>51.470999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>127838</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>283</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1026</v>
+      </c>
+      <c r="E33" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F33" t="s">
         <v>110</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G33" t="s">
         <v>123</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H33" t="s">
         <v>140</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I33" t="s">
         <v>141</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J33" t="s">
         <v>142</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K33" t="s">
         <v>44</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L33" t="s">
         <v>221</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M33" t="s">
         <v>222</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N33" t="s">
         <v>71</v>
       </c>
-      <c r="M28">
+      <c r="O33">
         <v>36</v>
       </c>
-      <c r="N28">
+      <c r="P33">
         <v>341</v>
       </c>
-      <c r="O28">
+      <c r="Q33">
         <v>306</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R33" t="s">
         <v>49</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S33" t="s">
         <v>191</v>
       </c>
-      <c r="R28" t="s">
+      <c r="T33" t="s">
         <v>10</v>
       </c>
-      <c r="S28">
+      <c r="U33">
         <v>111</v>
       </c>
-      <c r="T28">
+      <c r="V33">
         <v>50.494999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>127839</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>284</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1027</v>
+      </c>
+      <c r="E34" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F34" t="s">
         <v>110</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G34" t="s">
         <v>123</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H34" t="s">
         <v>140</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I34" t="s">
         <v>141</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J34" t="s">
         <v>142</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K34" t="s">
         <v>44</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L34" t="s">
         <v>221</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M34" t="s">
         <v>222</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N34" t="s">
         <v>72</v>
       </c>
-      <c r="M29">
+      <c r="O34">
         <v>4</v>
       </c>
-      <c r="N29">
+      <c r="P34">
         <v>252</v>
       </c>
-      <c r="O29">
+      <c r="Q34">
         <v>249</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R34" t="s">
         <v>49</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="S34" t="s">
         <v>191</v>
       </c>
-      <c r="R29" t="s">
+      <c r="T34" t="s">
         <v>10</v>
       </c>
-      <c r="S29">
+      <c r="U34">
         <v>95.5</v>
       </c>
-      <c r="T29">
+      <c r="V34">
         <v>51.807000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>127824</v>
-      </c>
-      <c r="B30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>127814</v>
+      </c>
+      <c r="B35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1029</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
         <v>110</v>
       </c>
-      <c r="E30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" t="s">
         <v>44</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L35" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" t="s">
+        <v>226</v>
+      </c>
+      <c r="N35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35">
+        <v>59481</v>
+      </c>
+      <c r="P35">
+        <v>60246</v>
+      </c>
+      <c r="Q35">
+        <v>766</v>
+      </c>
+      <c r="R35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35" t="s">
+        <v>192</v>
+      </c>
+      <c r="T35" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35">
+        <v>176</v>
+      </c>
+      <c r="V35">
+        <v>53.247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>127808</v>
+      </c>
+      <c r="B36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1030</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" t="s">
+        <v>165</v>
+      </c>
+      <c r="K36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" t="s">
+        <v>227</v>
+      </c>
+      <c r="M36" t="s">
+        <v>228</v>
+      </c>
+      <c r="N36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36">
+        <v>33476</v>
+      </c>
+      <c r="P36">
+        <v>33964</v>
+      </c>
+      <c r="Q36">
+        <v>489</v>
+      </c>
+      <c r="R36" t="s">
+        <v>49</v>
+      </c>
+      <c r="S36" t="s">
+        <v>192</v>
+      </c>
+      <c r="T36" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="V36">
+        <v>31.373000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>127633</v>
+      </c>
+      <c r="B37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1031</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" t="s">
+        <v>68</v>
+      </c>
+      <c r="O37">
+        <v>8211</v>
+      </c>
+      <c r="P37">
+        <v>8465</v>
+      </c>
+      <c r="Q37">
+        <v>255</v>
+      </c>
+      <c r="R37" t="s">
+        <v>66</v>
+      </c>
+      <c r="S37" t="s">
+        <v>191</v>
+      </c>
+      <c r="T37" t="s">
+        <v>8</v>
+      </c>
+      <c r="U37">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="V37">
+        <v>44.317999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>127631</v>
+      </c>
+      <c r="B38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1032</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" t="s">
+        <v>232</v>
+      </c>
+      <c r="N38" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38">
+        <v>2001</v>
+      </c>
+      <c r="P38">
+        <v>2318</v>
+      </c>
+      <c r="Q38">
+        <v>318</v>
+      </c>
+      <c r="R38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38" t="s">
+        <v>191</v>
+      </c>
+      <c r="T38" t="s">
+        <v>8</v>
+      </c>
+      <c r="U38">
+        <v>83.2</v>
+      </c>
+      <c r="V38">
+        <v>45.454999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>127632</v>
+      </c>
+      <c r="B39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1033</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" t="s">
+        <v>231</v>
+      </c>
+      <c r="M39" t="s">
+        <v>232</v>
+      </c>
+      <c r="N39" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39">
+        <v>3405</v>
+      </c>
+      <c r="P39">
+        <v>3728</v>
+      </c>
+      <c r="Q39">
+        <v>324</v>
+      </c>
+      <c r="R39" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39" t="s">
+        <v>191</v>
+      </c>
+      <c r="T39" t="s">
+        <v>8</v>
+      </c>
+      <c r="U39">
+        <v>77</v>
+      </c>
+      <c r="V39">
+        <v>52.703000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>127447</v>
+      </c>
+      <c r="B40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1034</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" t="s">
+        <v>139</v>
+      </c>
+      <c r="K40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" t="s">
+        <v>203</v>
+      </c>
+      <c r="M40" t="s">
+        <v>204</v>
+      </c>
+      <c r="N40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40">
+        <v>3922997</v>
+      </c>
+      <c r="P40">
+        <v>3924142</v>
+      </c>
+      <c r="Q40">
+        <v>1146</v>
+      </c>
+      <c r="R40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" t="s">
+        <v>192</v>
+      </c>
+      <c r="T40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U40">
+        <v>154</v>
+      </c>
+      <c r="V40">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>126716</v>
+      </c>
+      <c r="B41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1038</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" t="s">
+        <v>157</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>239</v>
+      </c>
+      <c r="M41" t="s">
+        <v>240</v>
+      </c>
+      <c r="N41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>197</v>
+      </c>
+      <c r="Q41">
+        <v>195</v>
+      </c>
+      <c r="R41" t="s">
+        <v>58</v>
+      </c>
+      <c r="S41" t="s">
+        <v>192</v>
+      </c>
+      <c r="T41" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41">
+        <v>118</v>
+      </c>
+      <c r="V41">
+        <v>82.811999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>78061</v>
+      </c>
+      <c r="B42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1039</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" t="s">
+        <v>241</v>
+      </c>
+      <c r="M42" t="s">
+        <v>242</v>
+      </c>
+      <c r="N42" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42">
+        <v>37137697</v>
+      </c>
+      <c r="P42">
+        <v>37138179</v>
+      </c>
+      <c r="Q42">
+        <v>483</v>
+      </c>
+      <c r="R42" t="s">
+        <v>49</v>
+      </c>
+      <c r="S42" t="s">
+        <v>192</v>
+      </c>
+      <c r="T42" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42">
+        <v>80.5</v>
+      </c>
+      <c r="V42">
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>69200</v>
+      </c>
+      <c r="B43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1040</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" t="s">
+        <v>172</v>
+      </c>
+      <c r="J43" t="s">
+        <v>173</v>
+      </c>
+      <c r="K43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" t="s">
+        <v>245</v>
+      </c>
+      <c r="M43" t="s">
+        <v>246</v>
+      </c>
+      <c r="N43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43">
+        <v>541405</v>
+      </c>
+      <c r="P43">
+        <v>541922</v>
+      </c>
+      <c r="Q43">
+        <v>518</v>
+      </c>
+      <c r="R43" t="s">
+        <v>49</v>
+      </c>
+      <c r="S43" t="s">
+        <v>192</v>
+      </c>
+      <c r="T43" t="s">
+        <v>10</v>
+      </c>
+      <c r="U43">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="V43">
+        <v>42.683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>69153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1041</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I44" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" t="s">
+        <v>136</v>
+      </c>
+      <c r="K44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>201</v>
+      </c>
+      <c r="M44" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" t="s">
+        <v>88</v>
+      </c>
+      <c r="O44">
+        <v>8062682</v>
+      </c>
+      <c r="P44">
+        <v>8063290</v>
+      </c>
+      <c r="Q44">
+        <v>609</v>
+      </c>
+      <c r="R44" t="s">
+        <v>58</v>
+      </c>
+      <c r="S44" t="s">
+        <v>192</v>
+      </c>
+      <c r="T44" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44">
         <v>223</v>
       </c>
-      <c r="K30" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" t="s">
-        <v>103</v>
-      </c>
-      <c r="M30">
-        <v>5551</v>
-      </c>
-      <c r="N30">
-        <v>9363</v>
-      </c>
-      <c r="O30">
-        <v>3813</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="V44">
+        <v>54.411999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>453</v>
+      </c>
+      <c r="B45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1042</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J45" t="s">
+        <v>177</v>
+      </c>
+      <c r="K45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>247</v>
+      </c>
+      <c r="M45" t="s">
+        <v>248</v>
+      </c>
+      <c r="N45" t="s">
+        <v>62</v>
+      </c>
+      <c r="O45">
+        <v>81310205</v>
+      </c>
+      <c r="P45">
+        <v>81310552</v>
+      </c>
+      <c r="Q45">
+        <v>348</v>
+      </c>
+      <c r="R45" t="s">
         <v>46</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="S45" t="s">
         <v>192</v>
       </c>
-      <c r="R30" t="s">
-        <v>8</v>
-      </c>
-      <c r="S30">
-        <v>498</v>
-      </c>
-      <c r="T30">
-        <v>51.76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>127814</v>
-      </c>
-      <c r="B31" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" t="s">
-        <v>225</v>
-      </c>
-      <c r="K31" t="s">
-        <v>226</v>
-      </c>
-      <c r="L31" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31">
-        <v>59481</v>
-      </c>
-      <c r="N31">
-        <v>60246</v>
-      </c>
-      <c r="O31">
-        <v>766</v>
-      </c>
-      <c r="P31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>192</v>
-      </c>
-      <c r="R31" t="s">
-        <v>8</v>
-      </c>
-      <c r="S31">
-        <v>176</v>
-      </c>
-      <c r="T31">
-        <v>53.247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>127808</v>
-      </c>
-      <c r="B32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" t="s">
-        <v>165</v>
-      </c>
-      <c r="I32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" t="s">
-        <v>227</v>
-      </c>
-      <c r="K32" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32">
-        <v>33476</v>
-      </c>
-      <c r="N32">
-        <v>33964</v>
-      </c>
-      <c r="O32">
-        <v>489</v>
-      </c>
-      <c r="P32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>192</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="T45" t="s">
         <v>10</v>
       </c>
-      <c r="S32">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="T32">
-        <v>31.373000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>127633</v>
-      </c>
-      <c r="B33" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" t="s">
-        <v>229</v>
-      </c>
-      <c r="K33" t="s">
-        <v>230</v>
-      </c>
-      <c r="L33" t="s">
-        <v>68</v>
-      </c>
-      <c r="M33">
-        <v>8211</v>
-      </c>
-      <c r="N33">
-        <v>8465</v>
-      </c>
-      <c r="O33">
-        <v>255</v>
-      </c>
-      <c r="P33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>191</v>
-      </c>
-      <c r="R33" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="T33">
-        <v>44.317999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>127631</v>
-      </c>
-      <c r="B34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" t="s">
-        <v>160</v>
-      </c>
-      <c r="H34" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" t="s">
-        <v>231</v>
-      </c>
-      <c r="K34" t="s">
-        <v>232</v>
-      </c>
-      <c r="L34" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34">
-        <v>2001</v>
-      </c>
-      <c r="N34">
-        <v>2318</v>
-      </c>
-      <c r="O34">
-        <v>318</v>
-      </c>
-      <c r="P34" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>191</v>
-      </c>
-      <c r="R34" t="s">
-        <v>8</v>
-      </c>
-      <c r="S34">
-        <v>83.2</v>
-      </c>
-      <c r="T34">
-        <v>45.454999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>127632</v>
-      </c>
-      <c r="B35" t="s">
-        <v>290</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" t="s">
-        <v>231</v>
-      </c>
-      <c r="K35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L35" t="s">
-        <v>67</v>
-      </c>
-      <c r="M35">
-        <v>3405</v>
-      </c>
-      <c r="N35">
-        <v>3728</v>
-      </c>
-      <c r="O35">
-        <v>324</v>
-      </c>
-      <c r="P35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>191</v>
-      </c>
-      <c r="R35" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35">
-        <v>77</v>
-      </c>
-      <c r="T35">
-        <v>52.703000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>127447</v>
-      </c>
-      <c r="B36" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" t="s">
-        <v>203</v>
-      </c>
-      <c r="K36" t="s">
-        <v>204</v>
-      </c>
-      <c r="L36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36">
-        <v>3922997</v>
-      </c>
-      <c r="N36">
-        <v>3924142</v>
-      </c>
-      <c r="O36">
-        <v>1146</v>
-      </c>
-      <c r="P36" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>192</v>
-      </c>
-      <c r="R36" t="s">
-        <v>10</v>
-      </c>
-      <c r="S36">
-        <v>154</v>
-      </c>
-      <c r="T36">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>127356</v>
-      </c>
-      <c r="B37" t="s">
-        <v>293</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" t="s">
-        <v>233</v>
-      </c>
-      <c r="K37" t="s">
-        <v>234</v>
-      </c>
-      <c r="L37" t="s">
-        <v>79</v>
-      </c>
-      <c r="M37">
-        <v>92706775</v>
-      </c>
-      <c r="N37">
-        <v>92709724</v>
-      </c>
-      <c r="O37">
-        <v>2950</v>
-      </c>
-      <c r="P37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>191</v>
-      </c>
-      <c r="R37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S37">
-        <v>857</v>
-      </c>
-      <c r="T37">
-        <v>76.224000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>127524</v>
-      </c>
-      <c r="B38" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" t="s">
-        <v>147</v>
-      </c>
-      <c r="I38" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" t="s">
-        <v>235</v>
-      </c>
-      <c r="K38" t="s">
-        <v>236</v>
-      </c>
-      <c r="L38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38">
-        <v>36780</v>
-      </c>
-      <c r="N38">
-        <v>40287</v>
-      </c>
-      <c r="O38">
-        <v>3508</v>
-      </c>
-      <c r="P38" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>191</v>
-      </c>
-      <c r="R38" t="s">
-        <v>10</v>
-      </c>
-      <c r="S38">
-        <v>810</v>
-      </c>
-      <c r="T38">
-        <v>72.676000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>127498</v>
-      </c>
-      <c r="B39" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" t="s">
-        <v>166</v>
-      </c>
-      <c r="I39" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" t="s">
-        <v>237</v>
-      </c>
-      <c r="K39" t="s">
-        <v>238</v>
-      </c>
-      <c r="L39" t="s">
-        <v>78</v>
-      </c>
-      <c r="M39">
-        <v>393893</v>
-      </c>
-      <c r="N39">
-        <v>397325</v>
-      </c>
-      <c r="O39">
-        <v>3433</v>
-      </c>
-      <c r="P39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>191</v>
-      </c>
-      <c r="R39" t="s">
-        <v>10</v>
-      </c>
-      <c r="S39">
-        <v>819</v>
-      </c>
-      <c r="T39">
-        <v>65.498000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>126716</v>
-      </c>
-      <c r="B40" t="s">
-        <v>296</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" t="s">
-        <v>239</v>
-      </c>
-      <c r="K40" t="s">
-        <v>240</v>
-      </c>
-      <c r="L40" t="s">
-        <v>60</v>
-      </c>
-      <c r="M40">
-        <v>3</v>
-      </c>
-      <c r="N40">
-        <v>197</v>
-      </c>
-      <c r="O40">
-        <v>195</v>
-      </c>
-      <c r="P40" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>192</v>
-      </c>
-      <c r="R40" t="s">
-        <v>8</v>
-      </c>
-      <c r="S40">
-        <v>118</v>
-      </c>
-      <c r="T40">
-        <v>82.811999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>78061</v>
-      </c>
-      <c r="B41" t="s">
-        <v>297</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" t="s">
-        <v>44</v>
-      </c>
-      <c r="J41" t="s">
-        <v>241</v>
-      </c>
-      <c r="K41" t="s">
-        <v>242</v>
-      </c>
-      <c r="L41" t="s">
-        <v>48</v>
-      </c>
-      <c r="M41">
-        <v>37137697</v>
-      </c>
-      <c r="N41">
-        <v>37138179</v>
-      </c>
-      <c r="O41">
-        <v>483</v>
-      </c>
-      <c r="P41" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>192</v>
-      </c>
-      <c r="R41" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41">
-        <v>80.5</v>
-      </c>
-      <c r="T41">
-        <v>31.875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>69200</v>
-      </c>
-      <c r="B42" t="s">
-        <v>299</v>
-      </c>
-      <c r="C42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" t="s">
-        <v>172</v>
-      </c>
-      <c r="H42" t="s">
-        <v>173</v>
-      </c>
-      <c r="I42" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" t="s">
-        <v>245</v>
-      </c>
-      <c r="K42" t="s">
-        <v>246</v>
-      </c>
-      <c r="L42" t="s">
-        <v>94</v>
-      </c>
-      <c r="M42">
-        <v>541405</v>
-      </c>
-      <c r="N42">
-        <v>541922</v>
-      </c>
-      <c r="O42">
-        <v>518</v>
-      </c>
-      <c r="P42" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>192</v>
-      </c>
-      <c r="R42" t="s">
-        <v>10</v>
-      </c>
-      <c r="S42">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="T42">
-        <v>42.683</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>69153</v>
-      </c>
-      <c r="B43" t="s">
-        <v>300</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" t="s">
-        <v>44</v>
-      </c>
-      <c r="J43" t="s">
-        <v>201</v>
-      </c>
-      <c r="K43" t="s">
-        <v>202</v>
-      </c>
-      <c r="L43" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43">
-        <v>8062682</v>
-      </c>
-      <c r="N43">
-        <v>8063290</v>
-      </c>
-      <c r="O43">
-        <v>609</v>
-      </c>
-      <c r="P43" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>192</v>
-      </c>
-      <c r="R43" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43">
-        <v>223</v>
-      </c>
-      <c r="T43">
-        <v>54.411999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>453</v>
-      </c>
-      <c r="B44" t="s">
-        <v>302</v>
-      </c>
-      <c r="C44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" t="s">
-        <v>177</v>
-      </c>
-      <c r="I44" t="s">
-        <v>44</v>
-      </c>
-      <c r="J44" t="s">
-        <v>247</v>
-      </c>
-      <c r="K44" t="s">
-        <v>248</v>
-      </c>
-      <c r="L44" t="s">
-        <v>62</v>
-      </c>
-      <c r="M44">
-        <v>81310205</v>
-      </c>
-      <c r="N44">
-        <v>81310552</v>
-      </c>
-      <c r="O44">
-        <v>348</v>
-      </c>
-      <c r="P44" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>192</v>
-      </c>
-      <c r="R44" t="s">
-        <v>10</v>
-      </c>
-      <c r="S44">
+      <c r="U45">
         <v>108</v>
       </c>
-      <c r="T44">
+      <c r="V45">
         <v>53.774000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>67069</v>
-      </c>
-      <c r="B45" t="s">
-        <v>303</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" t="s">
-        <v>171</v>
-      </c>
-      <c r="I45" t="s">
-        <v>44</v>
-      </c>
-      <c r="J45" t="s">
-        <v>249</v>
-      </c>
-      <c r="K45" t="s">
-        <v>250</v>
-      </c>
-      <c r="L45" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45">
-        <v>68317394</v>
-      </c>
-      <c r="N45">
-        <v>68319566</v>
-      </c>
-      <c r="O45">
-        <v>2173</v>
-      </c>
-      <c r="P45" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>191</v>
-      </c>
-      <c r="R45" t="s">
-        <v>10</v>
-      </c>
-      <c r="S45">
-        <v>575</v>
-      </c>
-      <c r="T45">
-        <v>65.682000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>66393</v>
       </c>
       <c r="B46" t="s">
         <v>304</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1044</v>
+      </c>
+      <c r="E46" t="s">
         <v>20</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>110</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>104</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>132</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>135</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>136</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>44</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>201</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M46" t="s">
         <v>202</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>21</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>8158598</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>8158813</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>216</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>74</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>191</v>
       </c>
-      <c r="R46" t="s">
+      <c r="T46" t="s">
         <v>10</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <v>77.400000000000006</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>48.610999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>566</v>
       </c>
       <c r="B47" t="s">
         <v>305</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1045</v>
+      </c>
+      <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>110</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>113</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>114</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>115</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>116</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>44</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>195</v>
       </c>
-      <c r="K47" t="s">
+      <c r="M47" t="s">
         <v>196</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
         <v>83</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>915509</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>915751</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>243</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>74</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="S47" t="s">
         <v>191</v>
       </c>
-      <c r="R47" t="s">
+      <c r="T47" t="s">
         <v>10</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <v>74.3</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <v>55.738</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>3786</v>
       </c>
       <c r="B48" t="s">
         <v>306</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1046</v>
+      </c>
+      <c r="E48" t="s">
         <v>27</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>110</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>111</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>112</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>151</v>
       </c>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>152</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>44</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>251</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="s">
         <v>252</v>
       </c>
-      <c r="L48" t="s">
+      <c r="N48" t="s">
         <v>50</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>24691043</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>24691207</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>165</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="s">
         <v>51</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="S48" t="s">
         <v>192</v>
       </c>
-      <c r="R48" t="s">
+      <c r="T48" t="s">
         <v>8</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <v>75.099999999999994</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <v>57.406999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>66729</v>
       </c>
       <c r="B49" t="s">
         <v>307</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1047</v>
+      </c>
+      <c r="E49" t="s">
         <v>28</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>110</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>111</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>112</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>151</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>152</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>44</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>253</v>
       </c>
-      <c r="K49" t="s">
+      <c r="M49" t="s">
         <v>254</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
         <v>53</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>12841261</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>12841548</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>288</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
         <v>51</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="S49" t="s">
         <v>191</v>
       </c>
-      <c r="R49" t="s">
+      <c r="T49" t="s">
         <v>8</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <v>92.4</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <v>61.457999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>529</v>
       </c>
       <c r="B50" t="s">
         <v>309</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1048</v>
+      </c>
+      <c r="E50" t="s">
         <v>28</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>110</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>111</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>112</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>151</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>152</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>44</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>253</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M50" t="s">
         <v>254</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>52</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>24706677</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>24706841</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>165</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>51</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="S50" t="s">
         <v>192</v>
       </c>
-      <c r="R50" t="s">
+      <c r="T50" t="s">
         <v>8</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <v>73.599999999999994</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <v>55.555999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>66843</v>
       </c>
       <c r="B51" t="s">
         <v>310</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1049</v>
+      </c>
+      <c r="E51" t="s">
         <v>42</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>110</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>123</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>124</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>172</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>173</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>44</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>255</v>
       </c>
-      <c r="K51" t="s">
+      <c r="M51" t="s">
         <v>256</v>
       </c>
-      <c r="L51" t="s">
+      <c r="N51" t="s">
         <v>93</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>15930</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>16448</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>519</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>49</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="S51" t="s">
         <v>192</v>
       </c>
-      <c r="R51" t="s">
+      <c r="T51" t="s">
         <v>8</v>
       </c>
-      <c r="S51">
+      <c r="U51">
         <v>111</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <v>35.954999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>66838</v>
       </c>
       <c r="B52" t="s">
         <v>311</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1050</v>
+      </c>
+      <c r="E52" t="s">
         <v>38</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>110</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>123</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>140</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>159</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>169</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>44</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>257</v>
       </c>
-      <c r="K52" t="s">
+      <c r="M52" t="s">
         <v>258</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>87</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>1823966</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>1824373</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>408</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>49</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="S52" t="s">
         <v>192</v>
       </c>
-      <c r="R52" t="s">
+      <c r="T52" t="s">
         <v>10</v>
       </c>
-      <c r="S52">
+      <c r="U52">
         <v>83.6</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <v>34.307000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>66840</v>
       </c>
       <c r="B53" t="s">
         <v>312</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1051</v>
+      </c>
+      <c r="E53" t="s">
         <v>39</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>110</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>123</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>124</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
         <v>158</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
         <v>170</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>44</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>259</v>
       </c>
-      <c r="K53" t="s">
+      <c r="M53" t="s">
         <v>260</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" t="s">
         <v>90</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>3953770</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>3954246</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>477</v>
       </c>
-      <c r="P53" t="s">
+      <c r="R53" t="s">
         <v>49</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="S53" t="s">
         <v>192</v>
       </c>
-      <c r="R53" t="s">
+      <c r="T53" t="s">
         <v>8</v>
       </c>
-      <c r="S53">
+      <c r="U53">
         <v>106</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <v>38.356000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>66361</v>
       </c>
       <c r="B54" t="s">
         <v>313</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1052</v>
+      </c>
+      <c r="E54" t="s">
         <v>20</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>110</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>104</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>132</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>135</v>
       </c>
-      <c r="H54" t="s">
+      <c r="J54" t="s">
         <v>136</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>44</v>
       </c>
-      <c r="J54" t="s">
+      <c r="L54" t="s">
         <v>201</v>
       </c>
-      <c r="K54" t="s">
+      <c r="M54" t="s">
         <v>202</v>
       </c>
-      <c r="L54" t="s">
+      <c r="N54" t="s">
         <v>89</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>3108503</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>3108655</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>153</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>58</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="S54" t="s">
         <v>191</v>
       </c>
-      <c r="R54" t="s">
+      <c r="T54" t="s">
         <v>8</v>
       </c>
-      <c r="S54">
+      <c r="U54">
         <v>70.5</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <v>62.744999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>704</v>
       </c>
       <c r="B55" t="s">
         <v>318</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1053</v>
+      </c>
+      <c r="E55" t="s">
         <v>56</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>110</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>113</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>104</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>174</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>175</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>44</v>
       </c>
-      <c r="J55" t="s">
+      <c r="L55" t="s">
         <v>261</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" t="s">
         <v>262</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>57</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>34329538</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>34329762</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>225</v>
       </c>
-      <c r="P55" t="s">
+      <c r="R55" t="s">
         <v>58</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="S55" t="s">
         <v>192</v>
       </c>
-      <c r="R55" t="s">
+      <c r="T55" t="s">
         <v>8</v>
       </c>
-      <c r="S55">
+      <c r="U55">
         <v>95.9</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <v>65.278000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>560</v>
       </c>
       <c r="B56" t="s">
         <v>319</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1054</v>
+      </c>
+      <c r="E56" t="s">
         <v>81</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>110</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>111</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>112</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>179</v>
       </c>
-      <c r="H56" t="s">
+      <c r="J56" t="s">
         <v>180</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>44</v>
       </c>
-      <c r="J56" t="s">
+      <c r="L56" t="s">
         <v>263</v>
       </c>
-      <c r="K56" t="s">
+      <c r="M56" t="s">
         <v>264</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56" t="s">
         <v>82</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>2110666</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <v>2110848</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>183</v>
       </c>
-      <c r="P56" t="s">
+      <c r="R56" t="s">
         <v>58</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="S56" t="s">
         <v>191</v>
       </c>
-      <c r="R56" t="s">
+      <c r="T56" t="s">
         <v>10</v>
       </c>
-      <c r="S56">
+      <c r="U56">
         <v>87</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <v>62.5</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>534</v>
       </c>
       <c r="B57" t="s">
         <v>320</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1055</v>
+      </c>
+      <c r="E57" t="s">
         <v>56</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>110</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>113</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>104</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>174</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>175</v>
       </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>44</v>
       </c>
-      <c r="J57" t="s">
+      <c r="L57" t="s">
         <v>261</v>
       </c>
-      <c r="K57" t="s">
+      <c r="M57" t="s">
         <v>262</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>57</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>34331402</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>34331746</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>345</v>
       </c>
-      <c r="P57" t="s">
+      <c r="R57" t="s">
         <v>46</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="S57" t="s">
         <v>191</v>
       </c>
-      <c r="R57" t="s">
+      <c r="T57" t="s">
         <v>8</v>
       </c>
-      <c r="S57">
+      <c r="U57">
         <v>74.3</v>
       </c>
-      <c r="T57">
+      <c r="V57">
         <v>42.981999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>499</v>
       </c>
       <c r="B58" t="s">
         <v>321</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1056</v>
+      </c>
+      <c r="E58" t="s">
         <v>40</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>110</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>123</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>124</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>158</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>170</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>44</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>265</v>
       </c>
-      <c r="K58" t="s">
+      <c r="M58" t="s">
         <v>266</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>91</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>29335</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>29844</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>510</v>
       </c>
-      <c r="P58" t="s">
+      <c r="R58" t="s">
         <v>49</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="S58" t="s">
         <v>192</v>
       </c>
-      <c r="R58" t="s">
+      <c r="T58" t="s">
         <v>10</v>
       </c>
-      <c r="S58">
+      <c r="U58">
         <v>94.7</v>
       </c>
-      <c r="T58">
+      <c r="V58">
         <v>31.902000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>476</v>
       </c>
       <c r="B59" t="s">
         <v>322</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1057</v>
+      </c>
+      <c r="E59" t="s">
         <v>75</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>110</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>123</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>124</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>143</v>
       </c>
-      <c r="H59" t="s">
+      <c r="J59" t="s">
         <v>144</v>
       </c>
-      <c r="I59" t="s">
+      <c r="K59" t="s">
         <v>44</v>
       </c>
-      <c r="J59" t="s">
+      <c r="L59" t="s">
         <v>267</v>
       </c>
-      <c r="K59" t="s">
+      <c r="M59" t="s">
         <v>268</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>76</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>436127</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>436450</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>324</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>49</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="S59" t="s">
         <v>192</v>
       </c>
-      <c r="R59" t="s">
+      <c r="T59" t="s">
         <v>10</v>
       </c>
-      <c r="S59">
+      <c r="U59">
         <v>73.599999999999994</v>
       </c>
-      <c r="T59">
+      <c r="V59">
         <v>39.773000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>67208</v>
       </c>
       <c r="B60" t="s">
         <v>301</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1058</v>
+      </c>
+      <c r="E60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>323</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>119</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>120</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>121</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>122</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>44</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>193</v>
       </c>
-      <c r="K60" t="s">
+      <c r="M60" t="s">
         <v>194</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>12</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>99998</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <v>100711</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>714</v>
       </c>
-      <c r="P60" t="s">
+      <c r="R60" t="s">
         <v>74</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="S60" t="s">
         <v>192</v>
       </c>
-      <c r="R60" t="s">
+      <c r="T60" t="s">
         <v>10</v>
       </c>
-      <c r="S60">
+      <c r="U60">
         <v>192</v>
       </c>
-      <c r="T60">
+      <c r="V60">
         <v>41.975000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T60">
-    <sortCondition ref="I2:I60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V60">
+    <sortCondition ref="D2:D60"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/eve/epv-proto-side-data.xlsx
+++ b/tabular/eve/epv-proto-side-data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546FA5F-20B2-9F42-97CD-F68C79B5DF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="2840" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29220" yWindow="-1840" windowWidth="25360" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Main set" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1026,14 +1020,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1130,8 +1123,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1222,7 +1219,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1257,6 +1254,8 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1291,6 +1290,8 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1627,14 +1628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
@@ -1645,11 +1646,12 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="29.5" customWidth="1"/>
     <col min="18" max="18" width="27.1640625" customWidth="1"/>
     <col min="19" max="19" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>184</v>
       </c>
@@ -1717,400 +1719,400 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>67069</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="10" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="4">
+        <v>127633</v>
+      </c>
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1031</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="10">
-        <v>68317394</v>
-      </c>
-      <c r="P2" s="10">
-        <v>68319566</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>2173</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="L2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2">
+        <v>8211</v>
+      </c>
+      <c r="P2">
+        <v>8465</v>
+      </c>
+      <c r="Q2">
+        <v>255</v>
+      </c>
+      <c r="R2" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" t="s">
         <v>191</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="V2">
+        <v>44.317999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="4">
+        <v>578</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1003</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>3921196</v>
+      </c>
+      <c r="P3">
+        <v>3921567</v>
+      </c>
+      <c r="Q3">
+        <v>372</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="10">
-        <v>575</v>
-      </c>
-      <c r="V2" s="10">
-        <v>65.682000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>127524</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="U3">
+        <v>121</v>
+      </c>
+      <c r="V3">
+        <v>44.715000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="4">
+        <v>578</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1009</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>3921196</v>
+      </c>
+      <c r="P4">
+        <v>3921567</v>
+      </c>
+      <c r="Q4">
+        <v>372</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" t="s">
+        <v>191</v>
+      </c>
+      <c r="T4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>121</v>
+      </c>
+      <c r="V4">
+        <v>44.715000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="4">
+        <v>127447</v>
+      </c>
+      <c r="B5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1034</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="10">
-        <v>36780</v>
-      </c>
-      <c r="P3" s="10">
-        <v>40287</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>3508</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="10" t="s">
+      <c r="L5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>3922997</v>
+      </c>
+      <c r="P5">
+        <v>3924142</v>
+      </c>
+      <c r="Q5">
+        <v>1146</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>154</v>
+      </c>
+      <c r="V5">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="4">
+        <v>566</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1045</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6">
+        <v>915509</v>
+      </c>
+      <c r="P6">
+        <v>915751</v>
+      </c>
+      <c r="Q6">
+        <v>243</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T6" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="10">
-        <v>810</v>
-      </c>
-      <c r="V3" s="10">
-        <v>72.676000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>127356</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="10">
-        <v>92706775</v>
-      </c>
-      <c r="P4" s="10">
-        <v>92709724</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>2950</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="10">
-        <v>857</v>
-      </c>
-      <c r="V4" s="10">
-        <v>76.224000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>127498</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="10">
-        <v>393893</v>
-      </c>
-      <c r="P5" s="10">
-        <v>397325</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>3433</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="10">
-        <v>819</v>
-      </c>
-      <c r="V5" s="10">
-        <v>65.498000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>127824</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="9">
-        <v>102</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" s="10">
-        <v>5551</v>
-      </c>
-      <c r="P6" s="10">
-        <v>9363</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>3813</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="10">
-        <v>498</v>
-      </c>
-      <c r="V6" s="10">
-        <v>51.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <v>74.3</v>
+      </c>
+      <c r="V6">
+        <v>55.738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="4">
-        <v>128335</v>
+        <v>704</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D7" s="8">
-        <v>1000</v>
+        <v>1053</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
         <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="M7" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="O7">
-        <v>1415</v>
+        <v>34329538</v>
       </c>
       <c r="P7">
-        <v>2827</v>
+        <v>34329762</v>
       </c>
       <c r="Q7">
-        <v>1413</v>
+        <v>225</v>
       </c>
       <c r="R7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
         <v>192</v>
@@ -2119,299 +2121,299 @@
         <v>8</v>
       </c>
       <c r="U7">
-        <v>317</v>
+        <v>95.9</v>
       </c>
       <c r="V7">
-        <v>35.941000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>65.278000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4">
-        <v>69167</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D8" s="8">
-        <v>1001</v>
+        <v>1055</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
       </c>
       <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
         <v>104</v>
       </c>
-      <c r="H8" t="s">
-        <v>132</v>
-      </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="M8" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="O8">
-        <v>8162107</v>
+        <v>34331402</v>
       </c>
       <c r="P8">
-        <v>8163053</v>
+        <v>34331746</v>
       </c>
       <c r="Q8">
-        <v>947</v>
+        <v>345</v>
       </c>
       <c r="R8" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s">
         <v>191</v>
       </c>
       <c r="T8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>97.1</v>
+        <v>74.3</v>
       </c>
       <c r="V8">
-        <v>36.058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>42.981999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="4">
-        <v>66379</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D9" s="8">
-        <v>1002</v>
+        <v>1042</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>110</v>
       </c>
       <c r="G9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" t="s">
         <v>104</v>
       </c>
-      <c r="H9" t="s">
-        <v>132</v>
-      </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="M9" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="O9">
-        <v>3785034</v>
+        <v>81310205</v>
       </c>
       <c r="P9">
-        <v>3786548</v>
+        <v>81310552</v>
       </c>
       <c r="Q9">
-        <v>1515</v>
+        <v>348</v>
       </c>
       <c r="R9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U9">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="V9">
-        <v>35.514000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>53.774000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4">
-        <v>578</v>
+        <v>3786</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="8">
-        <v>1003</v>
+        <v>1046</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="O10">
-        <v>3921196</v>
+        <v>24691043</v>
       </c>
       <c r="P10">
-        <v>3921567</v>
+        <v>24691207</v>
       </c>
       <c r="Q10">
-        <v>372</v>
+        <v>165</v>
       </c>
       <c r="R10" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>121</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="V10">
-        <v>44.715000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>57.406999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4">
-        <v>546</v>
+        <v>66729</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D11" s="8">
-        <v>1004</v>
+        <v>1047</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="M11" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O11">
-        <v>39131</v>
+        <v>12841261</v>
       </c>
       <c r="P11">
-        <v>39517</v>
+        <v>12841548</v>
       </c>
       <c r="Q11">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="R11" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="S11" t="s">
         <v>191</v>
       </c>
       <c r="T11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>110</v>
+        <v>92.4</v>
       </c>
       <c r="V11">
-        <v>40.768999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>61.457999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4">
-        <v>128335</v>
+        <v>529</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D12" s="8">
-        <v>1005</v>
+        <v>1048</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>110</v>
@@ -2423,34 +2425,34 @@
         <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="M12" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="O12">
-        <v>1415</v>
+        <v>24706677</v>
       </c>
       <c r="P12">
-        <v>2827</v>
+        <v>24706841</v>
       </c>
       <c r="Q12">
-        <v>1413</v>
+        <v>165</v>
       </c>
       <c r="R12" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="S12" t="s">
         <v>192</v>
@@ -2459,202 +2461,202 @@
         <v>8</v>
       </c>
       <c r="U12">
-        <v>317</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="V12">
-        <v>35.941000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>55.555999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4">
-        <v>546</v>
+        <v>126716</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D13" s="8">
-        <v>1006</v>
+        <v>1038</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="M13" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="O13">
-        <v>39131</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>39517</v>
+        <v>197</v>
       </c>
       <c r="Q13">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="R13" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U13">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="V13">
-        <v>40.768999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>82.811999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4">
-        <v>69167</v>
+        <v>127631</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D14" s="8">
-        <v>1007</v>
+        <v>1032</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="M14" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="O14">
-        <v>8162107</v>
+        <v>2001</v>
       </c>
       <c r="P14">
-        <v>8163053</v>
+        <v>2318</v>
       </c>
       <c r="Q14">
-        <v>947</v>
+        <v>318</v>
       </c>
       <c r="R14" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="S14" t="s">
         <v>191</v>
       </c>
       <c r="T14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U14">
-        <v>97.1</v>
+        <v>83.2</v>
       </c>
       <c r="V14">
-        <v>36.058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>45.454999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="4">
-        <v>66379</v>
+        <v>127632</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D15" s="8">
-        <v>1008</v>
+        <v>1033</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="M15" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="O15">
-        <v>3785034</v>
+        <v>3405</v>
       </c>
       <c r="P15">
-        <v>3786548</v>
+        <v>3728</v>
       </c>
       <c r="Q15">
-        <v>1515</v>
+        <v>324</v>
       </c>
       <c r="R15" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="S15" t="s">
         <v>191</v>
@@ -2663,539 +2665,539 @@
         <v>8</v>
       </c>
       <c r="U15">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="V15">
-        <v>35.514000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>52.703000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="4">
-        <v>578</v>
+        <v>128335</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D16" s="8">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O16">
-        <v>3921196</v>
+        <v>1415</v>
       </c>
       <c r="P16">
-        <v>3921567</v>
+        <v>2827</v>
       </c>
       <c r="Q16">
-        <v>372</v>
+        <v>1413</v>
       </c>
       <c r="R16" t="s">
         <v>17</v>
       </c>
       <c r="S16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="V16">
-        <v>44.715000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>35.941000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="4">
-        <v>127373</v>
+        <v>128335</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D17" s="8">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="O17">
-        <v>278</v>
+        <v>1415</v>
       </c>
       <c r="P17">
-        <v>2135</v>
+        <v>2827</v>
       </c>
       <c r="Q17">
-        <v>1858</v>
+        <v>1413</v>
       </c>
       <c r="R17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s">
         <v>8</v>
       </c>
       <c r="U17">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="V17">
-        <v>32.11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>35.941000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="4">
-        <v>69206</v>
+        <v>128190</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D18" s="8">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="O18">
-        <v>15726</v>
+        <v>77</v>
       </c>
       <c r="P18">
-        <v>16812</v>
+        <v>337</v>
       </c>
       <c r="Q18">
-        <v>1087</v>
+        <v>261</v>
       </c>
       <c r="R18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="S18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T18" t="s">
         <v>10</v>
       </c>
       <c r="U18">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="V18">
-        <v>31.602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>696</v>
-      </c>
-      <c r="B19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1012</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" t="s">
+        <v>64.367999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="9">
+        <v>127524</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L19" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" t="s">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O19">
-        <v>4894</v>
-      </c>
-      <c r="P19">
-        <v>5268</v>
-      </c>
-      <c r="Q19">
-        <v>369</v>
-      </c>
-      <c r="R19" t="s">
-        <v>51</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="L19" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="10">
+        <v>36780</v>
+      </c>
+      <c r="P19" s="10">
+        <v>40287</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>3508</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U19">
-        <v>67.8</v>
-      </c>
-      <c r="V19">
-        <v>33.064999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>1666</v>
-      </c>
-      <c r="B20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1013</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="U19" s="10">
+        <v>810</v>
+      </c>
+      <c r="V19" s="10">
+        <v>72.676000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="9">
+        <v>127498</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="9">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L20" t="s">
-        <v>243</v>
-      </c>
-      <c r="M20" t="s">
-        <v>244</v>
-      </c>
-      <c r="N20" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20">
-        <v>64936</v>
-      </c>
-      <c r="P20">
-        <v>65115</v>
-      </c>
-      <c r="Q20">
-        <v>180</v>
-      </c>
-      <c r="R20" t="s">
-        <v>58</v>
-      </c>
-      <c r="S20" t="s">
-        <v>192</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="L20" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="10">
+        <v>393893</v>
+      </c>
+      <c r="P20" s="10">
+        <v>397325</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>3433</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U20">
-        <v>62.8</v>
-      </c>
-      <c r="V20">
-        <v>41.667000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>1665</v>
-      </c>
-      <c r="B21" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1014</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="U20" s="10">
+        <v>819</v>
+      </c>
+      <c r="V20" s="10">
+        <v>65.498000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="9">
+        <v>127356</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L21" t="s">
-        <v>243</v>
-      </c>
-      <c r="M21" t="s">
-        <v>244</v>
-      </c>
-      <c r="N21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21">
-        <v>275</v>
-      </c>
-      <c r="P21">
-        <v>454</v>
-      </c>
-      <c r="Q21">
-        <v>180</v>
-      </c>
-      <c r="R21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S21" t="s">
-        <v>192</v>
-      </c>
-      <c r="T21" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21">
-        <v>62.8</v>
-      </c>
-      <c r="V21">
-        <v>41.667000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>835</v>
-      </c>
-      <c r="B22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1015</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="L21" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="10">
+        <v>92706775</v>
+      </c>
+      <c r="P21" s="10">
+        <v>92709724</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>2950</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="10">
+        <v>857</v>
+      </c>
+      <c r="V21" s="10">
+        <v>76.224000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="9">
+        <v>67069</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L22" t="s">
-        <v>197</v>
-      </c>
-      <c r="M22" t="s">
-        <v>198</v>
-      </c>
-      <c r="N22" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22">
-        <v>6741</v>
-      </c>
-      <c r="P22">
-        <v>6920</v>
-      </c>
-      <c r="Q22">
-        <v>180</v>
-      </c>
-      <c r="R22" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" t="s">
-        <v>192</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="L22" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" s="10">
+        <v>68317394</v>
+      </c>
+      <c r="P22" s="10">
+        <v>68319566</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>2173</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U22">
-        <v>62.8</v>
-      </c>
-      <c r="V22">
-        <v>41.667000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="10">
+        <v>575</v>
+      </c>
+      <c r="V22" s="10">
+        <v>65.682000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="4">
-        <v>834</v>
+        <v>127814</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D23" s="8">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="O23">
-        <v>3097</v>
+        <v>59481</v>
       </c>
       <c r="P23">
-        <v>3276</v>
+        <v>60246</v>
       </c>
       <c r="Q23">
-        <v>180</v>
+        <v>766</v>
       </c>
       <c r="R23" t="s">
         <v>58</v>
@@ -3204,98 +3206,98 @@
         <v>192</v>
       </c>
       <c r="T23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U23">
-        <v>62.8</v>
+        <v>176</v>
       </c>
       <c r="V23">
-        <v>41.667000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>53.247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="4">
-        <v>210985</v>
+        <v>560</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D24" s="8">
-        <v>1017</v>
+        <v>1054</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
         <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="N24" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="O24">
-        <v>81076</v>
+        <v>2110666</v>
       </c>
       <c r="P24">
-        <v>81573</v>
+        <v>2110848</v>
       </c>
       <c r="Q24">
-        <v>498</v>
+        <v>183</v>
       </c>
       <c r="R24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U24">
-        <v>93.6</v>
+        <v>87</v>
       </c>
       <c r="V24">
-        <v>31.547999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="4">
-        <v>169456</v>
+        <v>66838</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D25" s="8">
-        <v>1018</v>
+        <v>1050</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
         <v>110</v>
@@ -3304,34 +3306,34 @@
         <v>123</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="I25" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="K25" t="s">
         <v>44</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O25">
-        <v>78240</v>
+        <v>1823966</v>
       </c>
       <c r="P25">
-        <v>78677</v>
+        <v>1824373</v>
       </c>
       <c r="Q25">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="R25" t="s">
         <v>49</v>
@@ -3340,30 +3342,30 @@
         <v>192</v>
       </c>
       <c r="T25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U25">
-        <v>95.9</v>
+        <v>83.6</v>
       </c>
       <c r="V25">
-        <v>35.332999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>34.307000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="4">
-        <v>128338</v>
+        <v>127828</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D26" s="8">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
         <v>110</v>
@@ -3372,66 +3374,66 @@
         <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s">
         <v>44</v>
       </c>
       <c r="L26" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="O26">
-        <v>78240</v>
+        <v>79</v>
       </c>
       <c r="P26">
-        <v>78677</v>
+        <v>384</v>
       </c>
       <c r="Q26">
-        <v>438</v>
+        <v>306</v>
       </c>
       <c r="R26" t="s">
         <v>49</v>
       </c>
       <c r="S26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U26">
-        <v>95.9</v>
+        <v>111</v>
       </c>
       <c r="V26">
-        <v>35.332999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>50.494999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="4">
-        <v>128324</v>
+        <v>127834</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D27" s="8">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>110</v>
@@ -3440,66 +3442,66 @@
         <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s">
         <v>44</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O27">
-        <v>241222</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>241632</v>
+        <v>209</v>
       </c>
       <c r="Q27">
-        <v>411</v>
+        <v>204</v>
       </c>
       <c r="R27" t="s">
         <v>49</v>
       </c>
       <c r="S27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T27" t="s">
         <v>10</v>
       </c>
       <c r="U27">
-        <v>108</v>
+        <v>81.3</v>
       </c>
       <c r="V27">
-        <v>38.686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>51.470999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="4">
-        <v>128322</v>
+        <v>127838</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D28" s="8">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
         <v>110</v>
@@ -3508,66 +3510,66 @@
         <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J28" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N28" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="O28">
-        <v>50561</v>
+        <v>36</v>
       </c>
       <c r="P28">
-        <v>50890</v>
+        <v>341</v>
       </c>
       <c r="Q28">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T28" t="s">
         <v>10</v>
       </c>
       <c r="U28">
-        <v>67.8</v>
+        <v>111</v>
       </c>
       <c r="V28">
-        <v>35.576999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>50.494999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="4">
-        <v>128321</v>
+        <v>127839</v>
       </c>
       <c r="B29" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D29" s="8">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
@@ -3576,134 +3578,134 @@
         <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J29" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K29" t="s">
         <v>44</v>
       </c>
       <c r="L29" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N29" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O29">
-        <v>16046</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>16375</v>
+        <v>252</v>
       </c>
       <c r="Q29">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="R29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T29" t="s">
         <v>10</v>
       </c>
       <c r="U29">
-        <v>64.7</v>
+        <v>95.5</v>
       </c>
       <c r="V29">
-        <v>34.615000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>51.807000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="4">
-        <v>128190</v>
+        <v>210985</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D30" s="8">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="F30" t="s">
         <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s">
         <v>44</v>
       </c>
       <c r="L30" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M30" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N30" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="O30">
-        <v>77</v>
+        <v>81076</v>
       </c>
       <c r="P30">
-        <v>337</v>
+        <v>81573</v>
       </c>
       <c r="Q30">
-        <v>261</v>
+        <v>498</v>
       </c>
       <c r="R30" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="S30" t="s">
         <v>192</v>
       </c>
       <c r="T30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U30">
-        <v>134</v>
+        <v>93.6</v>
       </c>
       <c r="V30">
-        <v>64.367999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>31.547999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="4">
-        <v>127828</v>
+        <v>127808</v>
       </c>
       <c r="B31" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D31" s="8">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>110</v>
@@ -3712,66 +3714,66 @@
         <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J31" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s">
         <v>44</v>
       </c>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O31">
-        <v>79</v>
+        <v>33476</v>
       </c>
       <c r="P31">
-        <v>384</v>
+        <v>33964</v>
       </c>
       <c r="Q31">
-        <v>306</v>
+        <v>489</v>
       </c>
       <c r="R31" t="s">
         <v>49</v>
       </c>
       <c r="S31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T31" t="s">
         <v>10</v>
       </c>
       <c r="U31">
-        <v>111</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="V31">
-        <v>50.494999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>31.373000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="4">
-        <v>127834</v>
+        <v>128324</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D32" s="8">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
         <v>110</v>
@@ -3780,66 +3782,66 @@
         <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J32" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="K32" t="s">
         <v>44</v>
       </c>
       <c r="L32" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M32" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N32" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>241222</v>
       </c>
       <c r="P32">
-        <v>209</v>
+        <v>241632</v>
       </c>
       <c r="Q32">
-        <v>204</v>
+        <v>411</v>
       </c>
       <c r="R32" t="s">
         <v>49</v>
       </c>
       <c r="S32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T32" t="s">
         <v>10</v>
       </c>
       <c r="U32">
-        <v>81.3</v>
+        <v>108</v>
       </c>
       <c r="V32">
-        <v>51.470999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+        <v>38.686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="4">
-        <v>127838</v>
+        <v>66840</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D33" s="8">
-        <v>1026</v>
+        <v>1051</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>110</v>
@@ -3848,66 +3850,66 @@
         <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s">
         <v>44</v>
       </c>
       <c r="L33" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="N33" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O33">
-        <v>36</v>
+        <v>3953770</v>
       </c>
       <c r="P33">
-        <v>341</v>
+        <v>3954246</v>
       </c>
       <c r="Q33">
-        <v>306</v>
+        <v>477</v>
       </c>
       <c r="R33" t="s">
         <v>49</v>
       </c>
       <c r="S33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U33">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="V33">
-        <v>50.494999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>38.356000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="4">
-        <v>127839</v>
+        <v>499</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D34" s="8">
-        <v>1027</v>
+        <v>1056</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
         <v>110</v>
@@ -3916,105 +3918,105 @@
         <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s">
         <v>44</v>
       </c>
       <c r="L34" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="N34" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>29335</v>
       </c>
       <c r="P34">
-        <v>252</v>
+        <v>29844</v>
       </c>
       <c r="Q34">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="R34" t="s">
         <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T34" t="s">
         <v>10</v>
       </c>
       <c r="U34">
-        <v>95.5</v>
+        <v>94.7</v>
       </c>
       <c r="V34">
-        <v>51.807000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>31.902000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="4">
-        <v>127814</v>
+        <v>66843</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D35" s="8">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K35" t="s">
         <v>44</v>
       </c>
       <c r="L35" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="N35" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O35">
-        <v>59481</v>
+        <v>15930</v>
       </c>
       <c r="P35">
-        <v>60246</v>
+        <v>16448</v>
       </c>
       <c r="Q35">
-        <v>766</v>
+        <v>519</v>
       </c>
       <c r="R35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="S35" t="s">
         <v>192</v>
@@ -4023,27 +4025,27 @@
         <v>8</v>
       </c>
       <c r="U35">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="V35">
-        <v>53.247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+        <v>35.954999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="4">
-        <v>127808</v>
+        <v>69200</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D36" s="8">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
         <v>110</v>
@@ -4055,31 +4057,31 @@
         <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="J36" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K36" t="s">
         <v>44</v>
       </c>
       <c r="L36" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="N36" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="O36">
-        <v>33476</v>
+        <v>541405</v>
       </c>
       <c r="P36">
-        <v>33964</v>
+        <v>541922</v>
       </c>
       <c r="Q36">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="R36" t="s">
         <v>49</v>
@@ -4091,338 +4093,338 @@
         <v>10</v>
       </c>
       <c r="U36">
-        <v>80.900000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="V36">
-        <v>31.373000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>42.683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="4">
-        <v>127633</v>
+        <v>476</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D37" s="8">
-        <v>1031</v>
+        <v>1057</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
         <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K37" t="s">
         <v>44</v>
       </c>
       <c r="L37" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="O37">
-        <v>8211</v>
+        <v>436127</v>
       </c>
       <c r="P37">
-        <v>8465</v>
+        <v>436450</v>
       </c>
       <c r="Q37">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="R37" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U37">
-        <v>72.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="V37">
-        <v>44.317999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>39.773000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="4">
-        <v>127631</v>
+        <v>128321</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D38" s="8">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
         <v>110</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J38" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K38" t="s">
         <v>44</v>
       </c>
       <c r="L38" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="M38" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="N38" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="O38">
-        <v>2001</v>
+        <v>16046</v>
       </c>
       <c r="P38">
-        <v>2318</v>
+        <v>16375</v>
       </c>
       <c r="Q38">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U38">
-        <v>83.2</v>
+        <v>64.7</v>
       </c>
       <c r="V38">
-        <v>45.454999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+        <v>34.615000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="4">
-        <v>127632</v>
+        <v>128322</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D39" s="8">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H39" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s">
         <v>44</v>
       </c>
       <c r="L39" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="M39" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N39" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O39">
-        <v>3405</v>
+        <v>50561</v>
       </c>
       <c r="P39">
-        <v>3728</v>
+        <v>50890</v>
       </c>
       <c r="Q39">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="R39" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="S39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U39">
-        <v>77</v>
+        <v>67.8</v>
       </c>
       <c r="V39">
-        <v>52.703000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+        <v>35.576999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="4">
-        <v>127447</v>
+        <v>78061</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D40" s="8">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
         <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I40" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J40" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s">
         <v>44</v>
       </c>
       <c r="L40" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="M40" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="N40" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O40">
-        <v>3922997</v>
+        <v>37137697</v>
       </c>
       <c r="P40">
-        <v>3924142</v>
+        <v>37138179</v>
       </c>
       <c r="Q40">
-        <v>1146</v>
+        <v>483</v>
       </c>
       <c r="R40" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="S40" t="s">
         <v>192</v>
       </c>
       <c r="T40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U40">
-        <v>154</v>
+        <v>80.5</v>
       </c>
       <c r="V40">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="4">
-        <v>126716</v>
+        <v>169456</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D41" s="8">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
         <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I41" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J41" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s">
         <v>44</v>
       </c>
       <c r="L41" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="M41" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="N41" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>78240</v>
       </c>
       <c r="P41">
-        <v>197</v>
+        <v>78677</v>
       </c>
       <c r="Q41">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="R41" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="S41" t="s">
         <v>192</v>
@@ -4431,27 +4433,27 @@
         <v>8</v>
       </c>
       <c r="U41">
-        <v>118</v>
+        <v>95.9</v>
       </c>
       <c r="V41">
-        <v>82.811999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+        <v>35.332999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="4">
-        <v>78061</v>
+        <v>128338</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D42" s="8">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
         <v>110</v>
@@ -4466,28 +4468,28 @@
         <v>145</v>
       </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s">
         <v>44</v>
       </c>
       <c r="L42" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="M42" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="O42">
-        <v>37137697</v>
+        <v>78240</v>
       </c>
       <c r="P42">
-        <v>37138179</v>
+        <v>78677</v>
       </c>
       <c r="Q42">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="R42" t="s">
         <v>49</v>
@@ -4499,66 +4501,66 @@
         <v>8</v>
       </c>
       <c r="U42">
-        <v>80.5</v>
+        <v>95.9</v>
       </c>
       <c r="V42">
-        <v>31.875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+        <v>35.332999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="4">
-        <v>69200</v>
+        <v>67208</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D43" s="8">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="G43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="J43" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="K43" t="s">
         <v>44</v>
       </c>
       <c r="L43" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="M43" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="N43" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="O43">
-        <v>541405</v>
+        <v>99998</v>
       </c>
       <c r="P43">
-        <v>541922</v>
+        <v>100711</v>
       </c>
       <c r="Q43">
-        <v>518</v>
+        <v>714</v>
       </c>
       <c r="R43" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s">
         <v>192</v>
@@ -4567,27 +4569,27 @@
         <v>10</v>
       </c>
       <c r="U43">
-        <v>70.099999999999994</v>
+        <v>192</v>
       </c>
       <c r="V43">
-        <v>42.683</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+        <v>41.975000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="4">
-        <v>69153</v>
+        <v>546</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D44" s="8">
-        <v>1041</v>
+        <v>1004</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
         <v>110</v>
@@ -4599,128 +4601,128 @@
         <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="O44">
-        <v>8062682</v>
+        <v>39131</v>
       </c>
       <c r="P44">
-        <v>8063290</v>
+        <v>39517</v>
       </c>
       <c r="Q44">
-        <v>609</v>
+        <v>387</v>
       </c>
       <c r="R44" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="S44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U44">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="V44">
-        <v>54.411999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+        <v>40.768999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="4">
-        <v>453</v>
+        <v>546</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D45" s="8">
-        <v>1042</v>
+        <v>1006</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
         <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H45" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="K45" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="N45" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="O45">
-        <v>81310205</v>
+        <v>39131</v>
       </c>
       <c r="P45">
-        <v>81310552</v>
+        <v>39517</v>
       </c>
       <c r="Q45">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="R45" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="S45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T45" t="s">
         <v>10</v>
       </c>
       <c r="U45">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V45">
-        <v>53.774000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>40.768999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="4">
-        <v>66393</v>
+        <v>69167</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D46" s="8">
-        <v>1044</v>
+        <v>1001</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -4741,7 +4743,7 @@
         <v>136</v>
       </c>
       <c r="K46" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L46" t="s">
         <v>201</v>
@@ -4753,16 +4755,16 @@
         <v>21</v>
       </c>
       <c r="O46">
-        <v>8158598</v>
+        <v>8162107</v>
       </c>
       <c r="P46">
-        <v>8158813</v>
+        <v>8163053</v>
       </c>
       <c r="Q46">
-        <v>216</v>
+        <v>947</v>
       </c>
       <c r="R46" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="S46" t="s">
         <v>191</v>
@@ -4771,202 +4773,202 @@
         <v>10</v>
       </c>
       <c r="U46">
-        <v>77.400000000000006</v>
+        <v>97.1</v>
       </c>
       <c r="V46">
-        <v>48.610999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+        <v>36.058</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="4">
-        <v>566</v>
+        <v>66379</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D47" s="8">
-        <v>1045</v>
+        <v>1002</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
         <v>110</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H47" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="J47" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M47" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N47" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="O47">
-        <v>915509</v>
+        <v>3785034</v>
       </c>
       <c r="P47">
-        <v>915751</v>
+        <v>3786548</v>
       </c>
       <c r="Q47">
-        <v>243</v>
+        <v>1515</v>
       </c>
       <c r="R47" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="S47" t="s">
         <v>191</v>
       </c>
       <c r="T47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U47">
-        <v>74.3</v>
+        <v>319</v>
       </c>
       <c r="V47">
-        <v>55.738</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+        <v>35.514000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="4">
-        <v>3786</v>
+        <v>69167</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D48" s="8">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
         <v>110</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H48" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="I48" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K48" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="M48" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="N48" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="O48">
-        <v>24691043</v>
+        <v>8162107</v>
       </c>
       <c r="P48">
-        <v>24691207</v>
+        <v>8163053</v>
       </c>
       <c r="Q48">
-        <v>165</v>
+        <v>947</v>
       </c>
       <c r="R48" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U48">
-        <v>75.099999999999994</v>
+        <v>97.1</v>
       </c>
       <c r="V48">
-        <v>57.406999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+        <v>36.058</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="4">
-        <v>66729</v>
+        <v>66379</v>
       </c>
       <c r="B49" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D49" s="8">
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
         <v>110</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H49" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K49" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="M49" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="N49" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="O49">
-        <v>12841261</v>
+        <v>3785034</v>
       </c>
       <c r="P49">
-        <v>12841548</v>
+        <v>3786548</v>
       </c>
       <c r="Q49">
-        <v>288</v>
+        <v>1515</v>
       </c>
       <c r="R49" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S49" t="s">
         <v>191</v>
@@ -4975,66 +4977,66 @@
         <v>8</v>
       </c>
       <c r="U49">
-        <v>92.4</v>
+        <v>319</v>
       </c>
       <c r="V49">
-        <v>61.457999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+        <v>35.514000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="4">
-        <v>529</v>
+        <v>69153</v>
       </c>
       <c r="B50" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D50" s="8">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s">
         <v>110</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="I50" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K50" t="s">
         <v>44</v>
       </c>
       <c r="L50" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="M50" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="N50" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="O50">
-        <v>24706677</v>
+        <v>8062682</v>
       </c>
       <c r="P50">
-        <v>24706841</v>
+        <v>8063290</v>
       </c>
       <c r="Q50">
-        <v>165</v>
+        <v>609</v>
       </c>
       <c r="R50" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="S50" t="s">
         <v>192</v>
@@ -5043,335 +5045,335 @@
         <v>8</v>
       </c>
       <c r="U50">
-        <v>73.599999999999994</v>
+        <v>223</v>
       </c>
       <c r="V50">
-        <v>55.555999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+        <v>54.411999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="4">
-        <v>66843</v>
+        <v>66393</v>
       </c>
       <c r="B51" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D51" s="8">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s">
         <v>110</v>
       </c>
       <c r="G51" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="J51" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="K51" t="s">
         <v>44</v>
       </c>
       <c r="L51" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="M51" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="N51" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="O51">
-        <v>15930</v>
+        <v>8158598</v>
       </c>
       <c r="P51">
-        <v>16448</v>
+        <v>8158813</v>
       </c>
       <c r="Q51">
-        <v>519</v>
+        <v>216</v>
       </c>
       <c r="R51" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="S51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U51">
-        <v>111</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="V51">
-        <v>35.954999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+        <v>48.610999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="4">
-        <v>66838</v>
+        <v>66361</v>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D52" s="8">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
         <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H52" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="J52" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="K52" t="s">
         <v>44</v>
       </c>
       <c r="L52" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="M52" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="N52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O52">
-        <v>1823966</v>
+        <v>3108503</v>
       </c>
       <c r="P52">
-        <v>1824373</v>
+        <v>3108655</v>
       </c>
       <c r="Q52">
-        <v>408</v>
+        <v>153</v>
       </c>
       <c r="R52" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="S52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U52">
-        <v>83.6</v>
+        <v>70.5</v>
       </c>
       <c r="V52">
-        <v>34.307000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+        <v>62.744999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="4">
-        <v>66840</v>
+        <v>69206</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D53" s="8">
-        <v>1051</v>
+        <v>1011</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G53" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H53" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I53" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="K53" t="s">
         <v>44</v>
       </c>
       <c r="L53" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="M53" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="N53" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O53">
-        <v>3953770</v>
+        <v>15726</v>
       </c>
       <c r="P53">
-        <v>3954246</v>
+        <v>16812</v>
       </c>
       <c r="Q53">
-        <v>477</v>
+        <v>1087</v>
       </c>
       <c r="R53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U53">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="V53">
-        <v>38.356000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+        <v>31.602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="4">
-        <v>66361</v>
+        <v>1666</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D54" s="8">
-        <v>1052</v>
+        <v>1013</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G54" t="s">
         <v>104</v>
       </c>
       <c r="H54" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I54" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J54" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K54" t="s">
         <v>44</v>
       </c>
       <c r="L54" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="N54" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O54">
-        <v>3108503</v>
+        <v>64936</v>
       </c>
       <c r="P54">
-        <v>3108655</v>
+        <v>65115</v>
       </c>
       <c r="Q54">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="R54" t="s">
         <v>58</v>
       </c>
       <c r="S54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U54">
-        <v>70.5</v>
+        <v>62.8</v>
       </c>
       <c r="V54">
-        <v>62.744999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+        <v>41.667000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="4">
-        <v>704</v>
+        <v>1665</v>
       </c>
       <c r="B55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D55" s="8">
-        <v>1053</v>
+        <v>1014</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H55" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="J55" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="K55" t="s">
         <v>44</v>
       </c>
       <c r="L55" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="M55" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="N55" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="O55">
-        <v>34329538</v>
+        <v>275</v>
       </c>
       <c r="P55">
-        <v>34329762</v>
+        <v>454</v>
       </c>
       <c r="Q55">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="R55" t="s">
         <v>58</v>
@@ -5383,202 +5385,202 @@
         <v>8</v>
       </c>
       <c r="U55">
-        <v>95.9</v>
+        <v>62.8</v>
       </c>
       <c r="V55">
-        <v>65.278000000000006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+        <v>41.667000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="4">
-        <v>560</v>
+        <v>127373</v>
       </c>
       <c r="B56" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D56" s="8">
-        <v>1054</v>
+        <v>1010</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H56" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="J56" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s">
         <v>44</v>
       </c>
       <c r="L56" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="M56" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="N56" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="O56">
-        <v>2110666</v>
+        <v>278</v>
       </c>
       <c r="P56">
-        <v>2110848</v>
+        <v>2135</v>
       </c>
       <c r="Q56">
-        <v>183</v>
+        <v>1858</v>
       </c>
       <c r="R56" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="S56" t="s">
         <v>191</v>
       </c>
       <c r="T56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U56">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="V56">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+        <v>32.11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="4">
-        <v>534</v>
+        <v>696</v>
       </c>
       <c r="B57" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D57" s="8">
-        <v>1055</v>
+        <v>1012</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G57" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H57" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I57" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="J57" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s">
         <v>44</v>
       </c>
       <c r="L57" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="M57" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="N57" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="O57">
-        <v>34331402</v>
+        <v>4894</v>
       </c>
       <c r="P57">
-        <v>34331746</v>
+        <v>5268</v>
       </c>
       <c r="Q57">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="R57" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S57" t="s">
         <v>191</v>
       </c>
       <c r="T57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U57">
-        <v>74.3</v>
+        <v>67.8</v>
       </c>
       <c r="V57">
-        <v>42.981999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+        <v>33.064999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="4">
-        <v>499</v>
+        <v>835</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D58" s="8">
-        <v>1056</v>
+        <v>1015</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H58" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I58" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="K58" t="s">
         <v>44</v>
       </c>
       <c r="L58" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="M58" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="N58" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O58">
-        <v>29335</v>
+        <v>6741</v>
       </c>
       <c r="P58">
-        <v>29844</v>
+        <v>6920</v>
       </c>
       <c r="Q58">
-        <v>510</v>
+        <v>180</v>
       </c>
       <c r="R58" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="S58" t="s">
         <v>192</v>
@@ -5587,66 +5589,66 @@
         <v>10</v>
       </c>
       <c r="U58">
-        <v>94.7</v>
+        <v>62.8</v>
       </c>
       <c r="V58">
-        <v>31.902000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+        <v>41.667000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="4">
-        <v>476</v>
+        <v>834</v>
       </c>
       <c r="B59" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>326</v>
       </c>
       <c r="D59" s="8">
-        <v>1057</v>
+        <v>1016</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G59" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H59" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J59" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K59" t="s">
         <v>44</v>
       </c>
       <c r="L59" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="M59" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="N59" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="O59">
-        <v>436127</v>
+        <v>3097</v>
       </c>
       <c r="P59">
-        <v>436450</v>
+        <v>3276</v>
       </c>
       <c r="Q59">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="R59" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="S59" t="s">
         <v>192</v>
@@ -5655,83 +5657,86 @@
         <v>10</v>
       </c>
       <c r="U59">
-        <v>73.599999999999994</v>
+        <v>62.8</v>
       </c>
       <c r="V59">
-        <v>39.773000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>67208</v>
-      </c>
-      <c r="B60" t="s">
-        <v>301</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D60" s="8">
-        <v>1058</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" t="s">
-        <v>323</v>
-      </c>
-      <c r="G60" t="s">
-        <v>119</v>
-      </c>
-      <c r="H60" t="s">
-        <v>120</v>
-      </c>
-      <c r="I60" t="s">
-        <v>121</v>
-      </c>
-      <c r="J60" t="s">
-        <v>122</v>
-      </c>
-      <c r="K60" t="s">
+        <v>41.667000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="9">
+        <v>127824</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D60" s="9">
+        <v>102</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K60" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L60" t="s">
-        <v>193</v>
-      </c>
-      <c r="M60" t="s">
-        <v>194</v>
-      </c>
-      <c r="N60" t="s">
-        <v>12</v>
-      </c>
-      <c r="O60">
-        <v>99998</v>
-      </c>
-      <c r="P60">
-        <v>100711</v>
-      </c>
-      <c r="Q60">
-        <v>714</v>
-      </c>
-      <c r="R60" t="s">
-        <v>74</v>
-      </c>
-      <c r="S60" t="s">
+      <c r="L60" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O60" s="10">
+        <v>5551</v>
+      </c>
+      <c r="P60" s="10">
+        <v>9363</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>3813</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S60" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="T60" t="s">
-        <v>10</v>
-      </c>
-      <c r="U60">
-        <v>192</v>
-      </c>
-      <c r="V60">
-        <v>41.975000000000001</v>
+      <c r="T60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" s="10">
+        <v>498</v>
+      </c>
+      <c r="V60" s="10">
+        <v>51.76</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V60">
-    <sortCondition ref="D2:D60"/>
+  <sortState ref="A2:V60">
+    <sortCondition ref="G2:G60"/>
+    <sortCondition ref="H2:H60"/>
+    <sortCondition ref="I2:I60"/>
+    <sortCondition ref="E2:E60"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
